--- a/data/respirometry/shallow/final_rates/100_rates.xlsx
+++ b/data/respirometry/shallow/final_rates/100_rates.xlsx
@@ -578,24 +578,24 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1450048780487805</v>
       </c>
       <c r="V2">
-        <v>0.0025</v>
+        <v>0.0002448603057459146</v>
       </c>
       <c r="Z2">
-        <v>-0.1964897044542789</v>
+        <v>-0.1844856619543747</v>
       </c>
       <c r="AB2">
-        <v>-0.007859588178171156</v>
+        <v>-753.4322943540341</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD2">
-        <v>-0.007859588178171156</v>
+        <v>-753.4322943540341</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -665,24 +665,24 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.1492487804878049</v>
       </c>
       <c r="V3">
-        <v>0.0025</v>
+        <v>0.0001488973818309612</v>
       </c>
       <c r="Z3">
-        <v>-0.1965079910713377</v>
+        <v>-0.1899027326049314</v>
       </c>
       <c r="AB3">
-        <v>-0.007860319642853508</v>
+        <v>-1275.393363333429</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD3">
-        <v>-0.007860319642853508</v>
+        <v>-1275.393363333429</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -752,24 +752,24 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1469268292682927</v>
       </c>
       <c r="V4">
-        <v>0.0025</v>
+        <v>0.0002222807942365138</v>
       </c>
       <c r="Z4">
-        <v>-0.1901479949406624</v>
+        <v>-0.1808977077723057</v>
       </c>
       <c r="AB4">
-        <v>-0.007605919797626496</v>
+        <v>-813.8251817645781</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD4">
-        <v>-0.007605919797626496</v>
+        <v>-813.8251817645781</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -839,24 +839,24 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1418926829268293</v>
       </c>
       <c r="V5">
-        <v>0.0025</v>
+        <v>0.0002529432437181515</v>
       </c>
       <c r="Z5">
-        <v>-0.2184813270763287</v>
+        <v>-0.2007310390331157</v>
       </c>
       <c r="AB5">
-        <v>-0.008739253083053147</v>
+        <v>-793.5813429228629</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD5">
-        <v>-0.008739253083053147</v>
+        <v>-793.5813429228629</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -926,24 +926,24 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1446439024390244</v>
       </c>
       <c r="V6">
-        <v>0.0025</v>
+        <v>0.0001851607801792304</v>
       </c>
       <c r="Z6">
-        <v>-0.1542859235728594</v>
+        <v>-0.1444995990480928</v>
       </c>
       <c r="AB6">
-        <v>-0.006171436942914377</v>
+        <v>-780.400681549415</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD6">
-        <v>-0.006171436942914377</v>
+        <v>-780.400681549415</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1013,24 +1013,24 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1429268292682927</v>
       </c>
       <c r="V7">
-        <v>0.0025</v>
+        <v>0.0003232296608680373</v>
       </c>
       <c r="Z7">
-        <v>-0.204121201981527</v>
+        <v>-0.1889044042065035</v>
       </c>
       <c r="AB7">
-        <v>-0.008164848079261081</v>
+        <v>-584.427814264317</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD7">
-        <v>-0.008164848079261081</v>
+        <v>-584.427814264317</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1100,24 +1100,28 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V8">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.001263712647193462</v>
-      </c>
-      <c r="AB8">
-        <v>5.054850588773849E-05</v>
+        <v>0.001263385345290537</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD8">
-        <v>5.054850588773849E-05</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1187,24 +1191,24 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1450048780487805</v>
       </c>
       <c r="V9">
-        <v>0.0025</v>
+        <v>0.0002448603057459146</v>
       </c>
       <c r="Z9">
-        <v>0.06014763641527432</v>
+        <v>0.05647306839756049</v>
       </c>
       <c r="AB9">
-        <v>0.002405905456610973</v>
+        <v>230.6338229282503</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD9">
-        <v>0.002405905456610973</v>
+        <v>230.6338229282503</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1274,24 +1278,24 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1492487804878049</v>
       </c>
       <c r="V10">
-        <v>0.0025</v>
+        <v>0.0001488973818309612</v>
       </c>
       <c r="Z10">
-        <v>0.1215450787913301</v>
+        <v>0.1174595621853158</v>
       </c>
       <c r="AB10">
-        <v>0.004861803151653203</v>
+        <v>788.8625088026342</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD10">
-        <v>0.004861803151653203</v>
+        <v>788.8625088026342</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1361,24 +1365,24 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.1469268292682927</v>
       </c>
       <c r="V11">
-        <v>0.0025</v>
+        <v>0.0002222807942365138</v>
       </c>
       <c r="Z11">
-        <v>-0.02798450603648877</v>
+        <v>-0.02662312056838054</v>
       </c>
       <c r="AB11">
-        <v>-0.001119380241459551</v>
+        <v>-119.7724736400424</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD11">
-        <v>-0.001119380241459551</v>
+        <v>-119.7724736400424</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1448,24 +1452,24 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1418926829268293</v>
       </c>
       <c r="V12">
-        <v>0.0025</v>
+        <v>0.0002529432437181515</v>
       </c>
       <c r="Z12">
-        <v>0.0808547264665074</v>
+        <v>0.07428576836083688</v>
       </c>
       <c r="AB12">
-        <v>0.003234189058660296</v>
+        <v>293.6855211820234</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD12">
-        <v>0.003234189058660296</v>
+        <v>293.6855211820234</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1535,24 +1539,24 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1446439024390244</v>
       </c>
       <c r="V13">
-        <v>0.0025</v>
+        <v>0.0001851607801792304</v>
       </c>
       <c r="Z13">
-        <v>0.1160983427908004</v>
+        <v>0.1087342486918217</v>
       </c>
       <c r="AB13">
-        <v>0.004643933711632017</v>
+        <v>587.2423338601731</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD13">
-        <v>0.004643933711632017</v>
+        <v>587.2423338601731</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1622,24 +1626,24 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1429268292682927</v>
       </c>
       <c r="V14">
-        <v>0.0025</v>
+        <v>0.0003232296608680373</v>
       </c>
       <c r="Z14">
-        <v>0.08357483242406935</v>
+        <v>0.07734450793189028</v>
       </c>
       <c r="AB14">
-        <v>0.003342993296962774</v>
+        <v>239.2865423432386</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD14">
-        <v>0.003342993296962774</v>
+        <v>239.2865423432386</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1709,24 +1713,28 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V15">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>-0.0002792264354856348</v>
-      </c>
-      <c r="AB15">
-        <v>-1.116905741942539E-05</v>
+        <v>-0.0002791541157665243</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD15">
-        <v>-1.116905741942539E-05</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
